--- a/biology/Médecine/Hervey_Cleckley/Hervey_Cleckley.xlsx
+++ b/biology/Médecine/Hervey_Cleckley/Hervey_Cleckley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hervey Milton Cleckley (25 janvier 1903 à Augusta – 28 janvier 1984) est un psychiatre américain,  pionnier de l'étude de la psychopathie.
 Son livre, Le Masque de normalité, dont la première édition parut en 1941, a beaucoup influencé les travaux ultérieurs du professeur canadien Robert Hare.
@@ -512,7 +524,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hervey Cleckley est le premier à avoir proposé une liste de critères diagnostiques pour la psychopathie :
 Charme superficiel et bonne « intelligence ».
@@ -558,7 +572,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Masque de normalité (1941)</t>
         </is>
